--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/81.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/81.xlsx
@@ -479,13 +479,13 @@
         <v>-0.225349682027556</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.670611051567826</v>
+        <v>-1.673197951993684</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2050276815526641</v>
+        <v>-0.2014766944150098</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3134587107808259</v>
+        <v>-0.3091128439869147</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2513405078036689</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.811824177035317</v>
+        <v>-1.811294519601</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1907025335297066</v>
+        <v>-0.1876615285873536</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3152641107129578</v>
+        <v>-0.3104759445459611</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2814564295969572</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.990584741631876</v>
+        <v>-1.987241525018233</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2647821694546021</v>
+        <v>-0.2607479584467084</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3466610701255426</v>
+        <v>-0.3414243085089752</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2981892117809018</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.019009952943445</v>
+        <v>-2.016109822712449</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2386471559645255</v>
+        <v>-0.2355825407353531</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3508274987396255</v>
+        <v>-0.3458504502780728</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.296582091301036</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.956090899598132</v>
+        <v>-1.9516954512019</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1917933287807679</v>
+        <v>-0.1907544761607095</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3644789665786664</v>
+        <v>-0.3596042293599981</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2793497269476654</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.70975218505721</v>
+        <v>-1.705839960531218</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1667790169050574</v>
+        <v>-0.1633413591441367</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3817554004540628</v>
+        <v>-0.3759189375522798</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2544170113507726</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.486615299373822</v>
+        <v>-1.477892872413134</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04934459830305569</v>
+        <v>-0.0466183971849629</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3650015409269382</v>
+        <v>-0.3593933107977439</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2243748042597691</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.20375461916136</v>
+        <v>-1.192883656100097</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.000362697267299583</v>
+        <v>0.003285879055875411</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3168633141401993</v>
+        <v>-0.3130777981534711</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1837717860513475</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.021520194364091</v>
+        <v>-1.006228598600655</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1454339718814192</v>
+        <v>0.1450971317894609</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3107671380834017</v>
+        <v>-0.3055004701035296</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1258554247262159</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7910837950056705</v>
+        <v>-0.7722663964105208</v>
       </c>
       <c r="F11" t="n">
-        <v>0.171978230343034</v>
+        <v>0.1692520292249412</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2971471506267869</v>
+        <v>-0.2915294763828647</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.04405145057383938</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5642770837409692</v>
+        <v>-0.5416238005472097</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1650856006108583</v>
+        <v>0.159943280141569</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2504727616228576</v>
+        <v>-0.2450597098647045</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.07258645279568268</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3566513694884381</v>
+        <v>-0.3257470780608204</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01247320038658708</v>
+        <v>-0.01716535138718443</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1996067596989045</v>
+        <v>-0.1947682249200262</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.229302278572032</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04798621980137319</v>
+        <v>-0.01655935402548366</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1303467703234317</v>
+        <v>-0.1366286806365427</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.08993068134579392</v>
+        <v>-0.08571231010070808</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4219881964406092</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3470437850523391</v>
+        <v>0.3829392911136013</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4076669032289146</v>
+        <v>-0.4123637762868759</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04012422257079671</v>
+        <v>0.04161639269778976</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6423214954488179</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7043429775493526</v>
+        <v>0.7440491839032838</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6119037543132854</v>
+        <v>-0.6172758815742847</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08055605173964747</v>
+        <v>0.08411333495378703</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8759114576411574</v>
       </c>
       <c r="E17" t="n">
-        <v>1.19756973930453</v>
+        <v>1.238207764978271</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7246916684692075</v>
+        <v>-0.7358719262878063</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1423866708625811</v>
+        <v>0.1453300866194134</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.106070505395789</v>
       </c>
       <c r="E18" t="n">
-        <v>1.550209835202493</v>
+        <v>1.59063694231398</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9190657157395081</v>
+        <v>-0.9309920586216034</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1950155742023909</v>
+        <v>0.2004333480179079</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.324534548527089</v>
       </c>
       <c r="E19" t="n">
-        <v>1.916413253868705</v>
+        <v>1.955790490226284</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.026080127758499</v>
+        <v>-1.042189426455451</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2598084973116124</v>
+        <v>0.2656182018883332</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.527946167878593</v>
       </c>
       <c r="E20" t="n">
-        <v>2.229463620827713</v>
+        <v>2.271685109737483</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.241042345135413</v>
+        <v>-1.258942090582844</v>
       </c>
       <c r="G20" t="n">
-        <v>0.330815647911729</v>
+        <v>0.3384795470133421</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.71276657472387</v>
       </c>
       <c r="E21" t="n">
-        <v>2.490332105877362</v>
+        <v>2.531464373555191</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.27326487757712</v>
+        <v>-1.296975114610833</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4567450477113906</v>
+        <v>0.4627782630033361</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.872501260666182</v>
       </c>
       <c r="E22" t="n">
-        <v>2.711719469307424</v>
+        <v>2.751731035370888</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.383845229915418</v>
+        <v>-1.410965579375429</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4569968907707987</v>
+        <v>0.465724826798411</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.002991054047117</v>
       </c>
       <c r="E23" t="n">
-        <v>2.78794134525641</v>
+        <v>2.831565285203259</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.493058546646866</v>
+        <v>-1.521338948199275</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5550047653777073</v>
+        <v>0.5642962002507452</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.106805854522729</v>
       </c>
       <c r="E24" t="n">
-        <v>2.914083237637447</v>
+        <v>2.954708671158218</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.637126155790836</v>
+        <v>-1.662046026519268</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5958143591356703</v>
+        <v>0.6053261566856902</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.187551233064876</v>
       </c>
       <c r="E25" t="n">
-        <v>2.923722530736293</v>
+        <v>2.963616045365659</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.584304435108667</v>
+        <v>-1.61377558212634</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6498803419332275</v>
+        <v>0.6603318288986642</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.247795665835834</v>
       </c>
       <c r="E26" t="n">
-        <v>2.910130875623862</v>
+        <v>2.950304565656819</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.499109863158707</v>
+        <v>-1.53374851495161</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5903824191480616</v>
+        <v>0.602880130971189</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.287938856118393</v>
       </c>
       <c r="E27" t="n">
-        <v>2.982889909505986</v>
+        <v>3.018240804951278</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.542799124899089</v>
+        <v>-1.576117961658782</v>
       </c>
       <c r="G27" t="n">
-        <v>0.620285634414532</v>
+        <v>0.6315807956289857</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.30572889550448</v>
       </c>
       <c r="E28" t="n">
-        <v>2.923344766147181</v>
+        <v>2.958124292651441</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.496434817662056</v>
+        <v>-1.529357788612742</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6378941863245228</v>
+        <v>0.6486825133819177</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.297353911072973</v>
       </c>
       <c r="E29" t="n">
-        <v>2.789466569784951</v>
+        <v>2.828031612275939</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.652021885745265</v>
+        <v>-1.678569292245123</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6077344059412804</v>
+        <v>0.6187147633314739</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.258891716333065</v>
       </c>
       <c r="E30" t="n">
-        <v>2.746615473226661</v>
+        <v>2.780077545726392</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.636998660242011</v>
+        <v>-1.662005889031675</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5589760156207489</v>
+        <v>0.5711919780211636</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.189081742537389</v>
       </c>
       <c r="E31" t="n">
-        <v>2.63327193032092</v>
+        <v>2.665237110636294</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.67627909442363</v>
+        <v>-1.697262343329689</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5529034498507709</v>
+        <v>0.5625348728540098</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.091579937531422</v>
       </c>
       <c r="E32" t="n">
-        <v>2.593304436792852</v>
+        <v>2.62384512980345</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.72245845441391</v>
+        <v>-1.740699762010664</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5441094050200639</v>
+        <v>0.5534449124284984</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.974553507624655</v>
       </c>
       <c r="E33" t="n">
-        <v>2.417566775918752</v>
+        <v>2.44730944123485</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.715485549706548</v>
+        <v>-1.732153625191562</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5401570430064779</v>
+        <v>0.5498089282582937</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.846636614233538</v>
       </c>
       <c r="E34" t="n">
-        <v>2.244193291764845</v>
+        <v>2.275245540989865</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.706176800623176</v>
+        <v>-1.72307546990946</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4812572474874062</v>
+        <v>0.4891383612277587</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.715013854820906</v>
       </c>
       <c r="E35" t="n">
-        <v>2.091393811545459</v>
+        <v>2.122480689191148</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.746883296128694</v>
+        <v>-1.759946867825929</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4181438027806125</v>
+        <v>0.4258502003985006</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.585257858244024</v>
       </c>
       <c r="E36" t="n">
-        <v>1.94063426010728</v>
+        <v>1.970069991694724</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.61370317724676</v>
+        <v>-1.630980398131717</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4209927773901667</v>
+        <v>0.4276068057378722</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.459537295982296</v>
       </c>
       <c r="E37" t="n">
-        <v>1.740425323954317</v>
+        <v>1.771636549110589</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.599134843269562</v>
+        <v>-1.616708766758884</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3382450181642683</v>
+        <v>0.3486902090532196</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.338517444218108</v>
       </c>
       <c r="E38" t="n">
-        <v>1.622301484977186</v>
+        <v>1.653112909276647</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.496106634675265</v>
+        <v>-1.514844545304789</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2915013723190018</v>
+        <v>0.3011123330736638</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.222956462403066</v>
       </c>
       <c r="E39" t="n">
-        <v>1.449313635507998</v>
+        <v>1.48068383659552</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.457640755388919</v>
+        <v>-1.477686675908243</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2775288045792155</v>
+        <v>0.2861859097463693</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.111668238503832</v>
       </c>
       <c r="E40" t="n">
-        <v>1.219360460019816</v>
+        <v>1.252556523288048</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.5303966412328</v>
+        <v>-1.545254594728318</v>
       </c>
       <c r="G40" t="n">
-        <v>0.298915002380328</v>
+        <v>0.3048884049456641</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.0042538221377</v>
       </c>
       <c r="E41" t="n">
-        <v>1.137177773658465</v>
+        <v>1.167301351601918</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.470282489961645</v>
+        <v>-1.485884954501538</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1994070875508198</v>
+        <v>0.2056811277683243</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9005066292090658</v>
       </c>
       <c r="E42" t="n">
-        <v>1.00059541244584</v>
+        <v>1.028474439122318</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.352349894307752</v>
+        <v>-1.371718986604917</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1600770717668795</v>
+        <v>0.1663857404050527</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.79956229846143</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9139802882389061</v>
+        <v>0.9398776248416663</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.288632813267939</v>
+        <v>-1.306736394191579</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1191982211675794</v>
+        <v>0.1251606055990664</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7026477263222495</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7425963642543233</v>
+        <v>0.7693845956797397</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.215296114368298</v>
+        <v>-1.234852514940898</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1036736705741907</v>
+        <v>0.1096864236175593</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.610470633602792</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5845931768199176</v>
+        <v>0.6108336495911214</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.184448487629047</v>
+        <v>-1.199892763247249</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08878974576317138</v>
+        <v>0.09337643748264157</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.52274894668395</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4128834308772256</v>
+        <v>0.4395425927346953</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.043836637465892</v>
+        <v>-1.063108140577537</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01445354472150379</v>
+        <v>0.01944318533602697</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.440374738420737</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3360571315856603</v>
+        <v>0.3595556630475583</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.064693177832687</v>
+        <v>-1.0786012107885</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02424214135655232</v>
+        <v>-0.01936897815700539</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3633920923932859</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2009716625573927</v>
+        <v>0.2240263206270839</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9371960549882101</v>
+        <v>-0.9551619092387361</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01224181957575587</v>
+        <v>-0.01067567055006169</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2912634526364746</v>
       </c>
       <c r="E49" t="n">
-        <v>0.197178276475058</v>
+        <v>0.2172958148644021</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.908770843676641</v>
+        <v>-0.9263534242711303</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09345176212014356</v>
+        <v>-0.08776325701576287</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2233515687364226</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01887653845235873</v>
+        <v>0.04135195748541125</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.849495644597139</v>
+        <v>-0.8673481694709314</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1012038062925495</v>
+        <v>-0.09668794543353777</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1575074937648037</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01192252197445228</v>
+        <v>0.03046131918513179</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.943160800448379</v>
+        <v>-0.9554035211738559</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1443760027515847</v>
+        <v>-0.1390322078347689</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.0928688525981083</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.03888996329937652</v>
+        <v>-0.02218489836501232</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9052749472082321</v>
+        <v>-0.9183739343356965</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1532456005001141</v>
+        <v>-0.1491311145170341</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.02908886668612957</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1045454488870708</v>
+        <v>-0.08882571992264084</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8601950395741804</v>
+        <v>-0.8736552640899833</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1893882275634205</v>
+        <v>-0.1851745783756985</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.03631893971767518</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2077774929575764</v>
+        <v>-0.1909118780728395</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8659040069271381</v>
+        <v>-0.8788054546548791</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2406099578087875</v>
+        <v>-0.2358705862345511</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1048354875670607</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2900813787912681</v>
+        <v>-0.2727183738642002</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8471456340490371</v>
+        <v>-0.8609112182743722</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2309927009776403</v>
+        <v>-0.2299082018030641</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1777145617651306</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3227674598641981</v>
+        <v>-0.3082109310304094</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8329684438234818</v>
+        <v>-0.846873328741052</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2344712832357148</v>
+        <v>-0.2332073458813103</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2565939416922631</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3784468122610887</v>
+        <v>-0.3632228993198685</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8337058717818112</v>
+        <v>-0.8481506452579876</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3481815725967191</v>
+        <v>-0.3440623645562751</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3406730925200491</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3983439879734507</v>
+        <v>-0.3846295593695578</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7378567643997664</v>
+        <v>-0.7543099862747226</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3576587417260705</v>
+        <v>-0.3535662920106887</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4300193720544798</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5115962377701565</v>
+        <v>-0.4970491530510955</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7355917508842148</v>
+        <v>-0.752742263229907</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4109691953454035</v>
+        <v>-0.4062912105168979</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5240743794717753</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5290064632708634</v>
+        <v>-0.5156383188736566</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7242918676123972</v>
+        <v>-0.7417398695720152</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4135616048381857</v>
+        <v>-0.4104702312839512</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6212280246348356</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5426768193393599</v>
+        <v>-0.5328391998312305</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7367045824029743</v>
+        <v>-0.75465784450053</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4539131590318501</v>
+        <v>-0.4504093924678348</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7201381864608335</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6514163563152966</v>
+        <v>-0.6390839164999057</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7765839308602486</v>
+        <v>-0.7950613413251973</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4876979054514481</v>
+        <v>-0.4839108154455987</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.8180366039926178</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7312458840903036</v>
+        <v>-0.7195949945544359</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7913340640459573</v>
+        <v>-0.8100271151305243</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5475342423476938</v>
+        <v>-0.5421825773352714</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.9110635963943536</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7602896849165438</v>
+        <v>-0.7494604333619951</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8387852314862485</v>
+        <v>-0.8555540441950253</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5405739297933021</v>
+        <v>-0.5364185193130683</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.9955508917792489</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8172880653370843</v>
+        <v>-0.805298761690137</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8522375859064448</v>
+        <v>-0.8692110211009908</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5779852162683768</v>
+        <v>-0.5734882436388208</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.067032140766175</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8457660062892171</v>
+        <v>-0.8331069575061563</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9564549659468846</v>
+        <v>-0.9716914710410753</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.661856825146884</v>
+        <v>-0.654334587766188</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.122568981507907</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9733788195391097</v>
+        <v>-0.9590945960133059</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9211229587310481</v>
+        <v>-0.9373998904644185</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6610178729552307</v>
+        <v>-0.6545470803475636</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.161130075277184</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.02225762232242</v>
+        <v>-1.009239697179703</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.004955217131523</v>
+        <v>-1.020014645074567</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7221055550529104</v>
+        <v>-0.7134925224211531</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.183180615183694</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.053458616354404</v>
+        <v>-1.038130818151177</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9707793269602816</v>
+        <v>-0.9869641785750559</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7509966760243846</v>
+        <v>-0.7423852174117486</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.19062447684207</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.203501989092391</v>
+        <v>-1.183010621161739</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9674424064231241</v>
+        <v>-0.9829520038348605</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7732737686481532</v>
+        <v>-0.7640578866929377</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.186301733513973</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.207518885889951</v>
+        <v>-1.18646165808519</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.00946556892361</v>
+        <v>-1.02497910138315</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.802582004686772</v>
+        <v>-0.792698738624125</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.172221213366722</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.184761717434186</v>
+        <v>-1.162583001005498</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.098364594875551</v>
+        <v>-1.112052265154382</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7657987518410962</v>
+        <v>-0.7564868547194814</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.149209763260811</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.141533643296344</v>
+        <v>-1.11866865453077</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.16562321893829</v>
+        <v>-1.175982625785131</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7559469661608752</v>
+        <v>-0.7471151448712571</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.118032239360905</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.144316509102804</v>
+        <v>-1.119618575070475</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.158693599756764</v>
+        <v>-1.16953150841648</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7622052661871668</v>
+        <v>-0.7504898418673258</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.078691461408968</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.066891295535584</v>
+        <v>-1.041822680000188</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.189693119341221</v>
+        <v>-1.202479663673107</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7768184597093224</v>
+        <v>-0.7641964003756122</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.031317745711739</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9772225742333259</v>
+        <v>-0.9514936576765449</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.271306797790222</v>
+        <v>-1.281732313440157</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7196736955105009</v>
+        <v>-0.709252114908369</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.9771095706001331</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8669601737575308</v>
+        <v>-0.8422110841037594</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.219653786305618</v>
+        <v>-1.231469160839662</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7306713671110288</v>
+        <v>-0.7172748903696387</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.9168881354498554</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7761432055062844</v>
+        <v>-0.750334013974317</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.221606357025592</v>
+        <v>-1.233314698259387</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.69053230549874</v>
+        <v>-0.6775010011934915</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8511467801160449</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6547579989098179</v>
+        <v>-0.6283191997293303</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.286139566979799</v>
+        <v>-1.296582396840068</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6676334753220575</v>
+        <v>-0.6544211588178596</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7797560677366383</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4794673594661668</v>
+        <v>-0.451106682938571</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.202191618173909</v>
+        <v>-1.21480265937377</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6839387393996114</v>
+        <v>-0.6692074944433583</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7024341877044065</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2567593939933325</v>
+        <v>-0.2326737533991894</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.21598868278167</v>
+        <v>-1.227172875648072</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6161205515392499</v>
+        <v>-0.6035598789512705</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.620022241478341</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.08827323921106429</v>
+        <v>-0.06511154784112468</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.224569448021441</v>
+        <v>-1.237448072471923</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4839234075985691</v>
+        <v>-0.4746996555477471</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5337477204165144</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1015408746648283</v>
+        <v>0.1252361585168888</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.140293316228759</v>
+        <v>-1.153595351822871</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4421300518897932</v>
+        <v>-0.4335847020802518</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4444597007021174</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2506791864080684</v>
+        <v>0.2749537092967676</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.113571193606437</v>
+        <v>-1.128030920264266</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3505363052021849</v>
+        <v>-0.3417942030024809</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3551111605438185</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4601339108795509</v>
+        <v>0.4797808175516261</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.091648255284961</v>
+        <v>-1.104344293517373</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2758837263171359</v>
+        <v>-0.2706170583372638</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2682643952477406</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6181402463521992</v>
+        <v>0.63776983881394</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.983776789854422</v>
+        <v>-0.9974983015443607</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2175206713184277</v>
+        <v>-0.2107020204849531</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1865361784879881</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8439868059529071</v>
+        <v>0.8604416018469845</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9369292587471496</v>
+        <v>-0.9480174364471523</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1597132450695386</v>
+        <v>-0.1531558814102</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1131439905027249</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9525406086725303</v>
+        <v>0.9680147906540374</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7628128375679889</v>
+        <v>-0.7749941715477349</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09677766452345191</v>
+        <v>-0.09219412084222431</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.05058637512236105</v>
       </c>
       <c r="E89" t="n">
-        <v>1.197006240459104</v>
+        <v>1.210602617628899</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6047671516173081</v>
+        <v>-0.6175245765954501</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02598795684239523</v>
+        <v>0.0272928186939535</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.001744027641200474</v>
       </c>
       <c r="E90" t="n">
-        <v>1.366570598339463</v>
+        <v>1.377565121901749</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5312935130541133</v>
+        <v>-0.5432418922039068</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04749378009672653</v>
+        <v>0.04806357501863738</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03192492630695591</v>
       </c>
       <c r="E91" t="n">
-        <v>1.447837205572218</v>
+        <v>1.457410389867968</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3137436082417813</v>
+        <v>-0.3273588736410323</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07717505866709359</v>
+        <v>0.07685868082371217</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.05061640077605871</v>
       </c>
       <c r="E92" t="n">
-        <v>1.586768003313823</v>
+        <v>1.592395121672473</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2229101127897612</v>
+        <v>-0.2335174276482066</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09030710019610523</v>
+        <v>0.09020321493409938</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.05431435634715592</v>
       </c>
       <c r="E93" t="n">
-        <v>1.598193808115345</v>
+        <v>1.602475140125283</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.01818846381602987</v>
+        <v>-0.02955130785269954</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1168639508106904</v>
+        <v>0.1154819620221884</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04261328974945355</v>
       </c>
       <c r="E94" t="n">
-        <v>1.54782204819548</v>
+        <v>1.552204117429181</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1399925877790827</v>
+        <v>0.1293207381366641</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1302919079345066</v>
+        <v>0.1277435709771208</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01658149128688184</v>
       </c>
       <c r="E95" t="n">
-        <v>1.541022285591461</v>
+        <v>1.544091622877997</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1941136612458856</v>
+        <v>0.1865190189856098</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1417381749846052</v>
+        <v>0.1386845778892819</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02058169139674462</v>
       </c>
       <c r="E96" t="n">
-        <v>1.509590697758208</v>
+        <v>1.5090728454673</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2844576367511812</v>
+        <v>0.2771400218562542</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0517735380875431</v>
+        <v>0.05156734158265271</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06262426490908113</v>
       </c>
       <c r="E97" t="n">
-        <v>1.351936942568731</v>
+        <v>1.351485199080917</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3009596532188976</v>
+        <v>0.2950271751507153</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03073362449311681</v>
+        <v>0.03021262416396628</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1024383204315936</v>
       </c>
       <c r="E98" t="n">
-        <v>1.289512918237067</v>
+        <v>1.287054300369595</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2543529470371842</v>
+        <v>0.2480977950491353</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02738725984123154</v>
+        <v>0.02594231028787751</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1337909419532836</v>
       </c>
       <c r="E99" t="n">
-        <v>1.185607193982644</v>
+        <v>1.182662204206691</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2277709121166582</v>
+        <v>0.2242073328260334</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06027166732344551</v>
+        <v>0.05733454764309843</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1569081337550625</v>
       </c>
       <c r="E100" t="n">
-        <v>1.068893676138198</v>
+        <v>1.06590618784597</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2241365019655749</v>
+        <v>0.2188052992017295</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02420931523532546</v>
+        <v>0.02218197860709017</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1736293900401704</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9083327076316792</v>
+        <v>0.9053798477601191</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1908459975500654</v>
+        <v>0.1873375089286861</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01511440447212963</v>
+        <v>-0.01640510015159619</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1908003315101581</v>
       </c>
       <c r="E102" t="n">
-        <v>0.738977694294453</v>
+        <v>0.736888970920487</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1543303279550107</v>
+        <v>0.1527673269675591</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03822257919194503</v>
+        <v>-0.03984854094424864</v>
       </c>
     </row>
   </sheetData>
